--- a/data/trans_camb/IP16B98-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B98-Estudios-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 16,01</t>
+          <t>-8,51; 14,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,15</t>
+          <t>0,0; 29,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 13,28</t>
+          <t>-2,32; 15,72</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 18,96</t>
+          <t>-8,58; 17,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,15</t>
+          <t>0,0; 42,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 15,45</t>
+          <t>-2,32; 18,65</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 55,35</t>
+          <t>-34,86; 55,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 68,84</t>
+          <t>-30,65; 69,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 38,5</t>
+          <t>-24,5; 39,76</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 124,34</t>
+          <t>-37,12; 125,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 220,92</t>
+          <t>-31,62; 220,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 74,52</t>
+          <t>-27,08; 77,02</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 15,58</t>
+          <t>-12,58; 16,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 18,28</t>
+          <t>-4,0; 19,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 14,44</t>
+          <t>-5,09; 12,99</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 19,72</t>
+          <t>-12,59; 20,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 22,51</t>
+          <t>-4,13; 25,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 17,22</t>
+          <t>-5,18; 15,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B98-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B98-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,82</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,54</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 14,52</t>
+          <t>0,0; 28,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,67</t>
+          <t>-8,55; 14,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 15,72</t>
+          <t>-4,19; 13,14</t>
         </is>
       </c>
     </row>
@@ -698,12 +698,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,57%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 17,03</t>
+          <t>0,0; 40,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,19</t>
+          <t>-8,57; 17,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 18,65</t>
+          <t>-4,3; 15,1</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,52</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>4,02</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-34,86; 55,54</t>
+          <t>-31,32; 51,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 69,21</t>
+          <t>-35,01; 55,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 39,76</t>
+          <t>-25,66; 44,31</t>
         </is>
       </c>
     </row>
@@ -794,12 +794,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>5,12%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,12; 125,19</t>
+          <t>-36,65; 150,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 220,92</t>
+          <t>-37,14; 123,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,08; 77,02</t>
+          <t>-27,82; 82,3</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>1,17</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 16,46</t>
+          <t>-2,66; 19,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 19,92</t>
+          <t>-10,49; 16,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 12,99</t>
+          <t>-6,09; 12,75</t>
         </is>
       </c>
     </row>
@@ -890,12 +890,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>1,27%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 20,16</t>
+          <t>-2,66; 25,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 25,71</t>
+          <t>-11,23; 19,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 15,73</t>
+          <t>-6,02; 15,21</t>
         </is>
       </c>
     </row>
